--- a/WPDigitalizer/MQ4/MQ4_Analisis.xlsx
+++ b/WPDigitalizer/MQ4/MQ4_Analisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Onmotica Developer\Desktop\MQSensorsLib\WPDigitalizer\MQ4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2C9E65-6FA9-4CD3-8DC9-9409E3D393B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAE54BC-76A4-4CCC-BC93-FF17C3EDDF8B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{9C5EFFC2-5141-4097-B56E-3EAE3E1B3AE4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9C5EFFC2-5141-4097-B56E-3EAE3E1B3AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Alcohol" sheetId="1" r:id="rId1"/>
@@ -191,6 +191,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -205,15 +214,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12322,8 +12322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232858AB-EFC4-400C-8167-ED5D9C610C58}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12332,7 +12332,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -12344,40 +12344,40 @@
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>200.08052545562001</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>4.0431013518424104</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1000</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>3.6203703344663198</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4997.9876738268904</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>3.2062339160297499</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>10000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>3.0676835080273701</v>
       </c>
     </row>
@@ -12409,16 +12409,16 @@
       <c r="A19" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12426,16 +12426,16 @@
       <c r="A20" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="12"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>4.0431013518424104</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>200.08052545562001</v>
       </c>
       <c r="C21" s="2">
@@ -12452,10 +12452,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>3.6203703344663198</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>1000</v>
       </c>
       <c r="C22" s="2">
@@ -12472,10 +12472,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>3.2062339160297499</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>4997.9876738268904</v>
       </c>
       <c r="C23" s="2">
@@ -12492,10 +12492,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>3.0676835080273701</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>10000</v>
       </c>
       <c r="C24" s="2">
@@ -12554,10 +12554,10 @@
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="4">
         <f>AVERAGE(E21:E30)</f>
         <v>6.8704871562129274E-2</v>
@@ -12567,7 +12567,7 @@
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -12575,7 +12575,7 @@
       <c r="A36" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="14"/>
+      <c r="B36" s="9"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -12606,13 +12606,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12631,7 +12631,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -12639,7 +12639,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
@@ -12704,16 +12704,16 @@
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12721,10 +12721,10 @@
       <c r="A19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="12"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -12849,10 +12849,10 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="13"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="4">
         <f>AVERAGE(E20:E29)</f>
         <v>2.8887249010564511E-2</v>
@@ -12860,12 +12860,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12876,14 +12876,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A322A761-882B-44F1-A786-A95B3813B6B6}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -12891,7 +12891,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -12944,16 +12944,16 @@
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -12961,10 +12961,10 @@
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="12"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -13083,10 +13083,10 @@
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="13"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="4">
         <f>AVERAGE(E20:E29)</f>
         <v>0.34604175435413903</v>
@@ -13094,12 +13094,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13110,14 +13110,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D929E0-C068-4B1B-BB8E-F6B06E71788E}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -13125,40 +13125,40 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>200.08052545562001</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>3.7423248790297299</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1009.29021834384</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>2.83947082054932</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4997.9876738268904</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2.10737103814402</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>10092.9021834384</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>1.86630755197374</v>
       </c>
     </row>
@@ -13190,16 +13190,16 @@
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13207,16 +13207,16 @@
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>3.7423248790297299</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>200.08052545562001</v>
       </c>
       <c r="C19" s="2">
@@ -13233,10 +13233,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>2.83947082054932</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>1009.29021834384</v>
       </c>
       <c r="C20" s="2">
@@ -13253,10 +13253,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>2.10737103814402</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>4997.9876738268904</v>
       </c>
       <c r="C21" s="2">
@@ -13273,10 +13273,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>1.86630755197374</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>10092.9021834384</v>
       </c>
       <c r="C22" s="2">
@@ -13335,10 +13335,10 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="4">
         <f>AVERAGE(E19:E28)</f>
         <v>2.3698285678417631E-2</v>
@@ -13346,12 +13346,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13362,14 +13362,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526543DA-870C-4FD9-86D4-30D11917DC17}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="C19" sqref="C19:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -13377,7 +13377,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
@@ -13430,16 +13430,16 @@
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13447,10 +13447,10 @@
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="12"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -13569,10 +13569,10 @@
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="13"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="4">
         <f>AVERAGE(E19:E28)</f>
         <v>3.5284942818489623E-2</v>
@@ -13580,12 +13580,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13596,14 +13596,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7FCDF8-00E6-44AE-8C88-3AF2DD83FBD0}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -13611,7 +13611,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
@@ -13664,16 +13664,16 @@
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="14" t="s">
         <v>8</v>
       </c>
     </row>
@@ -13681,10 +13681,10 @@
       <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="12"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="15"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -13803,10 +13803,10 @@
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="13"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="4">
         <f>AVERAGE(E21:E30)</f>
         <v>0.26917461168664103</v>
@@ -13814,12 +13814,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
